--- a/Risk-Registers/Risk-Register-ThriftedShoeStore.xlsx
+++ b/Risk-Registers/Risk-Register-ThriftedShoeStore.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="Risk Register " sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="104">
   <si>
     <t xml:space="preserve">Risk Name </t>
   </si>
@@ -265,6 +265,78 @@
   </si>
   <si>
     <t>Losses noted in previous orders, strict policy needed.</t>
+  </si>
+  <si>
+    <t>Social Media Account Hack</t>
+  </si>
+  <si>
+    <t>Instagram account may be hacked, resulting in loss of customers and data.</t>
+  </si>
+  <si>
+    <t>Turn on 2FA; use strong passwords; backup product photos.</t>
+  </si>
+  <si>
+    <t>Add backup admin account</t>
+  </si>
+  <si>
+    <t>Custoimers may claim incorrect quality or size, damaging brand reputation</t>
+  </si>
+  <si>
+    <t>Custoimers Complaint</t>
+  </si>
+  <si>
+    <t>Customer Service Lead</t>
+  </si>
+  <si>
+    <t>Upload clear pictures; size verification; transparency in condition.</t>
+  </si>
+  <si>
+    <t>Improvising listing quality</t>
+  </si>
+  <si>
+    <t>Add size chart to each listing.</t>
+  </si>
+  <si>
+    <t>Supplier Reliabilty Risk</t>
+  </si>
+  <si>
+    <t>Suppliers may delay or deliver low-quality shoes affecting product availability.</t>
+  </si>
+  <si>
+    <t>Procurement Lead</t>
+  </si>
+  <si>
+    <t>Work with 2–3 reliable suppliers; verify stock quality on receipt.</t>
+  </si>
+  <si>
+    <t>Need quality checklist.</t>
+  </si>
+  <si>
+    <t>Negative Social Media Reviews</t>
+  </si>
+  <si>
+    <t>Bad reviews may impact sales and reputation significantly.</t>
+  </si>
+  <si>
+    <t>Promote customer satisfaction; respond to complaints; maintain transparency.</t>
+  </si>
+  <si>
+    <t>Plan to post customer testimonals weekly.</t>
+  </si>
+  <si>
+    <t>Data Loss (Chats/Orders)</t>
+  </si>
+  <si>
+    <t>Losing chat history due to device reset or app issues impacts order tracking.</t>
+  </si>
+  <si>
+    <t>Backup order database weekly; export customer addresses to Google Sheets.</t>
+  </si>
+  <si>
+    <t>Started</t>
+  </si>
+  <si>
+    <t>Need automated backup workflow.</t>
   </si>
 </sst>
 </file>
@@ -370,7 +442,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -475,7 +547,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="hair">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -493,7 +565,7 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -508,22 +580,22 @@
       <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="hair">
         <color indexed="64"/>
       </right>
       <top style="hair">
         <color indexed="64"/>
       </top>
-      <bottom style="hair">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
         <color indexed="64"/>
       </left>
-      <right style="hair">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="hair">
@@ -536,36 +608,6 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="hair">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="hair">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="hair">
@@ -578,9 +620,146 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
+      <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="hair">
         <color indexed="64"/>
       </right>
@@ -591,7 +770,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -600,43 +779,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -644,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -656,37 +798,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +837,20 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -707,22 +862,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -732,13 +871,40 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1029,74 +1195,74 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" style="25" customWidth="1"/>
-    <col min="3" max="4" width="16" style="25" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="25" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="25" customWidth="1"/>
-    <col min="7" max="7" width="26.42578125" style="25" customWidth="1"/>
-    <col min="8" max="9" width="23.28515625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="25" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="25"/>
+    <col min="1" max="1" width="17.5703125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="19" customWidth="1"/>
+    <col min="3" max="4" width="16" style="19" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="19" customWidth="1"/>
+    <col min="8" max="9" width="23.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="19" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="19" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="21"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="30"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="29"/>
     </row>
     <row r="3" spans="1:11" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="21"/>
     </row>
     <row r="4" spans="1:11" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="37" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="17" t="s">
@@ -1128,13 +1294,13 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="36">
         <v>4</v>
       </c>
       <c r="D5" s="12">
@@ -1147,7 +1313,7 @@
       <c r="F5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="19" t="s">
         <v>65</v>
       </c>
       <c r="H5" s="13" t="s">
@@ -1159,18 +1325,18 @@
       <c r="J5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="30">
         <v>3</v>
       </c>
       <c r="D6" s="5">
@@ -1183,7 +1349,7 @@
       <c r="F6" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="19" t="s">
         <v>72</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1195,18 +1361,18 @@
       <c r="J6" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="19" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="30">
         <v>3</v>
       </c>
       <c r="D7" s="5">
@@ -1219,7 +1385,7 @@
       <c r="F7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="G7" s="19" t="s">
         <v>77</v>
       </c>
       <c r="H7" s="6" t="s">
@@ -1231,99 +1397,196 @@
       <c r="J7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="20" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="A8" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="30">
+        <v>3</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
       <c r="E8" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="30">
+        <v>4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
       <c r="E9" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="30">
+        <v>3</v>
+      </c>
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
       <c r="E10" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="43" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="30">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
       <c r="E11" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="43" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="A12" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="30">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5">
+        <v>5</v>
+      </c>
       <c r="E12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="43" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="E13" s="12"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
@@ -1332,9 +1595,9 @@
       <c r="K13" s="7"/>
     </row>
     <row r="14" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
@@ -1555,18 +1818,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1710,25 +1973,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7942AFF0-8F55-4BDC-903F-DA2F2B8930B2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB134D-45FE-4B2C-9497-EECCC7F19B0A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="53eaf018-249c-4c9f-9650-90a390b96858"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1AB134D-45FE-4B2C-9497-EECCC7F19B0A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7942AFF0-8F55-4BDC-903F-DA2F2B8930B2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="53eaf018-249c-4c9f-9650-90a390b96858"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
